--- a/price_reg.xlsx
+++ b/price_reg.xlsx
@@ -1,21 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.khamidov\Documents\09_september\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC54921-89E3-4A76-AE28-7E62486848B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="14385" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>mean_apr</t>
+  </si>
+  <si>
+    <t>median_apr</t>
+  </si>
+  <si>
+    <t>num_obs_apr</t>
+  </si>
+  <si>
+    <t>min_apr</t>
+  </si>
+  <si>
+    <t>max_apr</t>
+  </si>
+  <si>
+    <t>Андижон</t>
+  </si>
+  <si>
+    <t>Бухоро</t>
+  </si>
+  <si>
+    <t>Жиззах</t>
+  </si>
+  <si>
+    <t>Навоий</t>
+  </si>
+  <si>
+    <t>Наманган</t>
+  </si>
+  <si>
+    <t>Самарқанд</t>
+  </si>
+  <si>
+    <t>Сирдарё</t>
+  </si>
+  <si>
+    <t>Сурхондарё</t>
+  </si>
+  <si>
+    <t>Тошкент</t>
+  </si>
+  <si>
+    <t>Тошкент вилояти</t>
+  </si>
+  <si>
+    <t>Фарғона</t>
+  </si>
+  <si>
+    <t>Хоразм</t>
+  </si>
+  <si>
+    <t>Қашқадарё</t>
+  </si>
+  <si>
+    <t>Қоракалпоғистон</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,17 +137,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,9 +193,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,9 +279,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,78 +472,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mean_apr</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>median_apr</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>num_obs_apr</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>min_apr</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>max_apr</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Андижон</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>535.7584155667066</v>
+        <v>535.75841556670662</v>
       </c>
       <c r="C2">
-        <v>523.6363636363629</v>
+        <v>523.63636363636294</v>
       </c>
       <c r="D2">
         <v>107</v>
       </c>
       <c r="E2">
-        <v>276.7857142857143</v>
+        <v>276.78571428571428</v>
       </c>
       <c r="F2">
-        <v>766.6666666666666</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Бухоро</t>
-        </is>
+        <v>766.66666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>538.9262677496074</v>
       </c>
       <c r="C3">
-        <v>546.5116279069767</v>
+        <v>546.51162790697674</v>
       </c>
       <c r="D3">
         <v>707</v>
@@ -430,215 +538,195 @@
         <v>212.7659574468085</v>
       </c>
       <c r="F3">
-        <v>909.0909090909091</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Жиззах</t>
-        </is>
+        <v>909.09090909090912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>452.3382367316523</v>
+        <v>412.51977400480422</v>
       </c>
       <c r="C4">
-        <v>436.3636363636364</v>
+        <v>416.65277777777783</v>
       </c>
       <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>160.85217391304349</v>
+      </c>
+      <c r="F4">
+        <v>816.32653061224494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>452.33823673165227</v>
+      </c>
+      <c r="C5">
+        <v>436.36363636363637</v>
+      </c>
+      <c r="D5">
         <v>77</v>
       </c>
-      <c r="E4">
-        <v>199.9571428571429</v>
-      </c>
-      <c r="F4">
-        <v>818.1818181818181</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Навоий</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>640.4040301667695</v>
-      </c>
-      <c r="C5">
-        <v>616.8981481481482</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>199.95714285714291</v>
+      </c>
+      <c r="F5">
+        <v>818.18181818181813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>422.48974699677302</v>
+      </c>
+      <c r="C6">
+        <v>422.41379310344831</v>
+      </c>
+      <c r="D6">
+        <v>207</v>
+      </c>
+      <c r="E6">
+        <v>110.9150943396226</v>
+      </c>
+      <c r="F6">
+        <v>733.33333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>640.40403016676953</v>
+      </c>
+      <c r="C7">
+        <v>616.89814814814815</v>
+      </c>
+      <c r="D7">
         <v>791</v>
       </c>
-      <c r="E5">
-        <v>313.5333333333334</v>
-      </c>
-      <c r="F5">
-        <v>1112.9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Наманган</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>495.7544045793285</v>
-      </c>
-      <c r="C6">
+      <c r="E7">
+        <v>313.53333333333342</v>
+      </c>
+      <c r="F7">
+        <v>1112.9000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>495.75440457932848</v>
+      </c>
+      <c r="C8">
         <v>500</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>99</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>200</v>
       </c>
-      <c r="F6">
-        <v>742.8571428571429</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Самарқанд</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>765.9686467496002</v>
-      </c>
-      <c r="C7">
-        <v>763.8888888888889</v>
-      </c>
-      <c r="D7">
+      <c r="F8">
+        <v>742.85714285714289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>329.47320202862358</v>
+      </c>
+      <c r="C9">
+        <v>329.94</v>
+      </c>
+      <c r="D9">
+        <v>122</v>
+      </c>
+      <c r="E9">
+        <v>117.8333333333333</v>
+      </c>
+      <c r="F9">
+        <v>577.05147058823525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>765.96864674960023</v>
+      </c>
+      <c r="C10">
+        <v>763.88888888888891</v>
+      </c>
+      <c r="D10">
         <v>790</v>
       </c>
-      <c r="E7">
-        <v>380.7692307692308</v>
-      </c>
-      <c r="F7">
-        <v>1178.571428571429</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Сирдарё</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>412.5197740048042</v>
-      </c>
-      <c r="C8">
-        <v>416.6527777777778</v>
-      </c>
-      <c r="D8">
-        <v>113</v>
-      </c>
-      <c r="E8">
-        <v>160.8521739130435</v>
-      </c>
-      <c r="F8">
-        <v>816.3265306122449</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Сурхондарё</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>439.2319069249169</v>
-      </c>
-      <c r="C9">
-        <v>431.506849315068</v>
-      </c>
-      <c r="D9">
-        <v>96</v>
-      </c>
-      <c r="E9">
-        <v>210</v>
-      </c>
-      <c r="F9">
-        <v>658.5365853658536</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Тошкент</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>1233.719150502212</v>
-      </c>
-      <c r="C10">
-        <v>1175.841750841751</v>
-      </c>
-      <c r="D10">
-        <v>13848</v>
-      </c>
       <c r="E10">
-        <v>694.4444444444445</v>
+        <v>380.76923076923077</v>
       </c>
       <c r="F10">
-        <v>2393.939393939394</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Тошкент вилояти</t>
-        </is>
+        <v>1178.5714285714289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>665.7458480628244</v>
+        <v>665.74584806282439</v>
       </c>
       <c r="C11">
-        <v>644.7368421052631</v>
+        <v>644.73684210526312</v>
       </c>
       <c r="D11">
         <v>1643</v>
       </c>
       <c r="E11">
-        <v>277.7777777777778</v>
+        <v>277.77777777777783</v>
       </c>
       <c r="F11">
         <v>1354.166666666667</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Фарғона</t>
-        </is>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>435.7503279617769</v>
+        <v>439.23190692491693</v>
       </c>
       <c r="C12">
-        <v>425.531914893617</v>
+        <v>431.506849315068</v>
       </c>
       <c r="D12">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>191.304347826087</v>
+        <v>210</v>
       </c>
       <c r="F12">
-        <v>730.4347826086956</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Хоразм</t>
-        </is>
+        <v>658.53658536585363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>426.6347139423768</v>
+        <v>426.63471394237678</v>
       </c>
       <c r="C13">
         <v>437.1</v>
@@ -647,57 +735,65 @@
         <v>140</v>
       </c>
       <c r="E13">
-        <v>192.3076923076923</v>
+        <v>192.30769230769229</v>
       </c>
       <c r="F13">
-        <v>690.5238095238095</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Қашқадарё</t>
-        </is>
+        <v>690.52380952380952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>422.489746996773</v>
+        <v>435.75032796177692</v>
       </c>
       <c r="C14">
-        <v>422.4137931034483</v>
+        <v>425.531914893617</v>
       </c>
       <c r="D14">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="E14">
-        <v>110.9150943396226</v>
+        <v>191.304347826087</v>
       </c>
       <c r="F14">
-        <v>733.3333333333334</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Қоракалпоғистон</t>
-        </is>
+        <v>730.43478260869563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>329.4732020286236</v>
+        <v>1233.719150502212</v>
       </c>
       <c r="C15">
-        <v>329.94</v>
+        <v>1175.841750841751</v>
       </c>
       <c r="D15">
-        <v>122</v>
+        <v>13848</v>
       </c>
       <c r="E15">
-        <v>117.8333333333333</v>
+        <v>694.44444444444446</v>
       </c>
       <c r="F15">
-        <v>577.0514705882352</v>
+        <v>2393.939393939394</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>